--- a/tests/small.xlsx
+++ b/tests/small.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjb/Documents/repos/xlsx-util/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A3BE41-1250-6142-84C5-DE1FA5149698}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C32246-05DC-2B4E-BA3E-4962AEE1D137}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37080" yWindow="-4460" windowWidth="28040" windowHeight="17040" xr2:uid="{A8363035-383C-964B-B281-9E7E10EE636A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -390,7 +390,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732DFBE5-E805-FE41-B243-B59C5395274A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -415,7 +417,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -430,7 +432,7 @@
       </c>
       <c r="C6">
         <f>(A2+B2)/A4/7</f>
-        <v>8.5714285714285715E-2</v>
+        <v>7.792207792207792E-2</v>
       </c>
     </row>
   </sheetData>
